--- a/excel.xlsx
+++ b/excel.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BOBKOR.bertrand\Desktop\_kordi\PROJEKTY\serwistest4\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BOBKOR.bertrand\Desktop\_kordi\PROJEKTY\bertrandusterki\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{42D2ACEC-F31C-451A-8748-18E4ACFDAE4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66A2648E-E82F-4016-B8C5-6042CBD5C3DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{71C0DF7E-D73A-4680-BC74-4DAD74784DC5}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="38">
   <si>
     <t>Nr budowlany</t>
   </si>
@@ -73,6 +73,72 @@
   </si>
   <si>
     <t>2024-05-01</t>
+  </si>
+  <si>
+    <t>Zepsuty zawias</t>
+  </si>
+  <si>
+    <t>coś tam siemano</t>
+  </si>
+  <si>
+    <t>2024-05-02</t>
+  </si>
+  <si>
+    <t>Rysy na profilu</t>
+  </si>
+  <si>
+    <t>Uszkodzony nawiewnik</t>
+  </si>
+  <si>
+    <t>coś tam zrobić</t>
+  </si>
+  <si>
+    <t>coś tam poprawić</t>
+  </si>
+  <si>
+    <t>Z-P-24-00030</t>
+  </si>
+  <si>
+    <t>Z-P-24-00040</t>
+  </si>
+  <si>
+    <t>Z-P-24-00050</t>
+  </si>
+  <si>
+    <t>tel. 456 432 082</t>
+  </si>
+  <si>
+    <t>tel. 456 432 083</t>
+  </si>
+  <si>
+    <t>tel. 456 432 084</t>
+  </si>
+  <si>
+    <t>Wałowa 20 Wejherowo</t>
+  </si>
+  <si>
+    <t>nr budowlany</t>
+  </si>
+  <si>
+    <t>adres administracyjny</t>
+  </si>
+  <si>
+    <t>nr administracyjny</t>
+  </si>
+  <si>
+    <t>kontakt do klienta</t>
+  </si>
+  <si>
+    <t>usterka zgłoszona</t>
+  </si>
+  <si>
+    <t>numer zlecenia</t>
+  </si>
+  <si>
+    <t>numer pozycji</t>
+  </si>
+  <si>
+    <t>uwagi inwestora</t>
   </si>
 </sst>
 </file>
@@ -461,27 +527,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0DC72FF-5074-48B7-9EC2-48137D52FD8A}">
-  <dimension ref="B1:K3"/>
+  <dimension ref="B1:K7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M6" sqref="M6"/>
+      <selection activeCell="I30" sqref="I29:I30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="14.140625" customWidth="1"/>
-    <col min="3" max="3" width="14.28515625" customWidth="1"/>
+    <col min="3" max="3" width="21.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.28515625" customWidth="1"/>
     <col min="5" max="5" width="14" customWidth="1"/>
     <col min="6" max="6" width="11.28515625" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13.42578125" customWidth="1"/>
-    <col min="8" max="8" width="15.7109375" customWidth="1"/>
-    <col min="9" max="9" width="15" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11" customWidth="1"/>
+    <col min="8" max="10" width="15.7109375" customWidth="1"/>
+    <col min="11" max="11" width="15" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="1" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F1"/>
+    </row>
     <row r="2" spans="2:11" ht="36.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
         <v>0</v>
@@ -505,13 +573,13 @@
         <v>6</v>
       </c>
       <c r="I2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K2" s="1" t="s">
         <v>7</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="3" spans="2:11" x14ac:dyDescent="0.25">
@@ -537,13 +605,141 @@
         <v>12</v>
       </c>
       <c r="I3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J3">
+        <v>1</v>
+      </c>
+      <c r="K3" t="s">
         <v>13</v>
       </c>
-      <c r="J3" t="s">
-        <v>14</v>
-      </c>
-      <c r="K3">
-        <v>1</v>
+    </row>
+    <row r="4" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4">
+        <v>2</v>
+      </c>
+      <c r="D4">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>26</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I4" t="s">
+        <v>23</v>
+      </c>
+      <c r="J4">
+        <v>1</v>
+      </c>
+      <c r="K4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D5">
+        <v>6</v>
+      </c>
+      <c r="E5" t="s">
+        <v>27</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G5" t="s">
+        <v>11</v>
+      </c>
+      <c r="H5" t="s">
+        <v>19</v>
+      </c>
+      <c r="I5" t="s">
+        <v>24</v>
+      </c>
+      <c r="J5">
+        <v>1</v>
+      </c>
+      <c r="K5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6" t="s">
+        <v>28</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H6" t="s">
+        <v>20</v>
+      </c>
+      <c r="I6" t="s">
+        <v>25</v>
+      </c>
+      <c r="J6">
+        <v>1</v>
+      </c>
+      <c r="K6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D7" t="s">
+        <v>32</v>
+      </c>
+      <c r="E7" t="s">
+        <v>33</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H7" t="s">
+        <v>34</v>
+      </c>
+      <c r="I7" t="s">
+        <v>35</v>
+      </c>
+      <c r="J7" t="s">
+        <v>36</v>
+      </c>
+      <c r="K7" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>

--- a/excel.xlsx
+++ b/excel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BOBKOR.bertrand\Desktop\_kordi\PROJEKTY\bertrandusterki\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66A2648E-E82F-4016-B8C5-6042CBD5C3DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9ED11059-E37B-4492-BFEB-4D83D16F9527}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{71C0DF7E-D73A-4680-BC74-4DAD74784DC5}"/>
   </bookViews>
@@ -530,7 +530,7 @@
   <dimension ref="B1:K7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I30" sqref="I29:I30"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -541,8 +541,8 @@
     <col min="5" max="5" width="14" customWidth="1"/>
     <col min="6" max="6" width="11.28515625" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13.42578125" customWidth="1"/>
-    <col min="8" max="10" width="15.7109375" customWidth="1"/>
-    <col min="11" max="11" width="15" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22" bestFit="1" customWidth="1"/>
+    <col min="9" max="11" width="15.7109375" customWidth="1"/>
     <col min="12" max="12" width="12.28515625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="11" customWidth="1"/>
   </cols>
@@ -573,13 +573,13 @@
         <v>6</v>
       </c>
       <c r="I2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="3" spans="2:11" x14ac:dyDescent="0.25">
@@ -605,13 +605,13 @@
         <v>12</v>
       </c>
       <c r="I3" t="s">
+        <v>13</v>
+      </c>
+      <c r="J3" t="s">
         <v>14</v>
       </c>
-      <c r="J3">
-        <v>1</v>
-      </c>
-      <c r="K3" t="s">
-        <v>13</v>
+      <c r="K3">
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="2:11" x14ac:dyDescent="0.25">
@@ -637,13 +637,13 @@
         <v>16</v>
       </c>
       <c r="I4" t="s">
+        <v>17</v>
+      </c>
+      <c r="J4" t="s">
         <v>23</v>
       </c>
-      <c r="J4">
-        <v>1</v>
-      </c>
-      <c r="K4" t="s">
-        <v>17</v>
+      <c r="K4">
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="2:11" x14ac:dyDescent="0.25">
@@ -669,13 +669,13 @@
         <v>19</v>
       </c>
       <c r="I5" t="s">
+        <v>21</v>
+      </c>
+      <c r="J5" t="s">
         <v>24</v>
       </c>
-      <c r="J5">
-        <v>1</v>
-      </c>
-      <c r="K5" t="s">
-        <v>21</v>
+      <c r="K5">
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="2:11" x14ac:dyDescent="0.25">
@@ -701,13 +701,13 @@
         <v>20</v>
       </c>
       <c r="I6" t="s">
+        <v>22</v>
+      </c>
+      <c r="J6" t="s">
         <v>25</v>
       </c>
-      <c r="J6">
-        <v>1</v>
-      </c>
-      <c r="K6" t="s">
-        <v>22</v>
+      <c r="K6">
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="2:11" x14ac:dyDescent="0.25">
@@ -733,13 +733,13 @@
         <v>34</v>
       </c>
       <c r="I7" t="s">
+        <v>37</v>
+      </c>
+      <c r="J7" t="s">
         <v>35</v>
       </c>
-      <c r="J7" t="s">
+      <c r="K7" t="s">
         <v>36</v>
-      </c>
-      <c r="K7" t="s">
-        <v>37</v>
       </c>
     </row>
   </sheetData>
